--- a/DOC/Taches.xlsx
+++ b/DOC/Taches.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -56,40 +56,112 @@
     <t xml:space="preserve">*</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">&gt;&gt;&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Affiche un JSON en table</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modifier un JSON à la modification d’une table</t>
   </si>
   <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Statut Couleurs</t>
   </si>
   <si>
+    <t xml:space="preserve">1.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Todo</t>
   </si>
   <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Work in progress</t>
   </si>
   <si>
+    <t xml:space="preserve">1.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Done</t>
   </si>
   <si>
+    <t xml:space="preserve">1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interface de création &gt;&gt;&gt;  Frontend</t>
   </si>
   <si>
-    <t xml:space="preserve">Trouver une direction artistique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page menu principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page création (post pour JSON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page de dessin / avec la soumission du dessin</t>
+    <t xml:space="preserve">1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S’accorder sur une palette de couleur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer style.css commun pour toutes les pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer les différentes pages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">créer la fonction php qui créer le header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style css du header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">créer la fonction php qui créer le footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style css du footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21</t>
   </si>
   <si>
     <t xml:space="preserve">Mettre plusieurs couleurs</t>
@@ -218,8 +290,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5983B0"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
   </fills>
@@ -377,7 +449,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -401,7 +473,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF5983B0"/>
+      <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -424,13 +496,13 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+      <selection pane="topLeft" activeCell="U14" activeCellId="0" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.32"/>
@@ -469,9 +541,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -489,14 +559,14 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -509,14 +579,14 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
@@ -529,11 +599,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
+      <c r="A5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -547,15 +617,15 @@
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
+      <c r="A6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -568,16 +638,16 @@
         <v>10</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>1</v>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -590,16 +660,16 @@
         <v>10</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>1</v>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -612,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>1</v>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -635,11 +705,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>1</v>
+      <c r="A10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -653,11 +723,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>1</v>
+      <c r="A11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -671,11 +741,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>1</v>
+      <c r="A12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -689,11 +759,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>1</v>
+      <c r="A13" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -707,11 +777,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>1</v>
+      <c r="A14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -725,14 +795,9 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
@@ -745,14 +810,14 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>1</v>
+      <c r="A16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
@@ -765,14 +830,14 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>1</v>
+      <c r="A17" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -785,14 +850,14 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>1</v>
+      <c r="A18" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
@@ -805,13 +870,15 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>1</v>
+      <c r="A19" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5" t="n">
@@ -823,13 +890,15 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>1</v>
+      <c r="A20" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="n">
@@ -841,13 +910,15 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>1</v>
+      <c r="A21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5" t="n">
@@ -859,13 +930,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>1</v>
+      <c r="A22" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5" t="n">
@@ -877,11 +950,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>1</v>
+      <c r="A23" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -895,11 +968,11 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>1</v>
+      <c r="A24" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -927,10 +1000,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="14"/>
@@ -943,10 +1016,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="14"/>
@@ -959,10 +1032,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="14"/>
@@ -975,10 +1048,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="14"/>
@@ -991,10 +1064,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="14"/>
@@ -1007,10 +1080,10 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="14"/>
@@ -1023,10 +1096,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="14"/>
@@ -1039,10 +1112,10 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -1055,10 +1128,10 @@
         <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -1071,10 +1144,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="14"/>
@@ -1087,10 +1160,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="14"/>
@@ -1103,10 +1176,10 @@
         <v>13</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="14"/>
@@ -1119,10 +1192,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="14"/>
@@ -1135,10 +1208,10 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="14"/>
@@ -1151,10 +1224,10 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="14"/>
@@ -1239,17 +1312,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/Taches.xlsx
+++ b/DOC/Taches.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrinlu\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36A0C1F-B2A4-4CDB-9186-87EDFFFF8471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,212 +26,214 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonctionalité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assignement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Début</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priorité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer une toile           &gt;&gt;&gt;    Backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer un JSON avec deux variables INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affiche un JSON en table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modifier un JSON à la modification d’une table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statut Couleurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work in progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interface de création &gt;&gt;&gt;  Frontend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S’accorder sur une palette de couleur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer style.css commun pour toutes les pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Fonctionalité</t>
+  </si>
+  <si>
+    <t>Tache</t>
+  </si>
+  <si>
+    <t>Assignement</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Début</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Priorité</t>
+  </si>
+  <si>
+    <t>Créer une toile           &gt;&gt;&gt;    Backend</t>
+  </si>
+  <si>
+    <t>Créer un JSON avec deux variables INT</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Affiche un JSON en table</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Modifier un JSON à la modification d’une table</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Statut Couleurs</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Work in progress</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>Interface de création &gt;&gt;&gt;  Frontend</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>S’accorder sur une palette de couleur</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>Créer style.css commun pour toutes les pages</t>
+  </si>
+  <si>
+    <t>1.15</t>
   </si>
   <si>
     <t xml:space="preserve">Créer les différentes pages </t>
   </si>
   <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">créer la fonction php qui créer le header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">style css du header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">créer la fonction php qui créer le footer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">style css du footer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre plusieurs couleurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter un utilisateur à une toile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retirer un utilisateur d'une toile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modifier une toile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supprimer une toile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualiser les toiles finis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualiser les toiles en cours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche les toiles par tags (#)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poster la toile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noter une toile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualiser le classement des toiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualier toutes les infos d'une toile (ADMIN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supprimer une toile (ADMIN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter une image de défi (ADMIN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supprimer une image de défi (ADMIN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En Cours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminé</t>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>créer la fonction php qui créer le header</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>style css du header</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>créer la fonction php qui créer le footer</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>style css du footer</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>Mettre plusieurs couleurs</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Ajouter un utilisateur à une toile</t>
+  </si>
+  <si>
+    <t>Retirer un utilisateur d'une toile</t>
+  </si>
+  <si>
+    <t>Modifier une toile</t>
+  </si>
+  <si>
+    <t>Supprimer une toile</t>
+  </si>
+  <si>
+    <t>Visualiser les toiles finis</t>
+  </si>
+  <si>
+    <t>Visualiser les toiles en cours</t>
+  </si>
+  <si>
+    <t>Recherche les toiles par tags (#)</t>
+  </si>
+  <si>
+    <t>Poster la toile</t>
+  </si>
+  <si>
+    <t>Noter une toile</t>
+  </si>
+  <si>
+    <t>Visualiser le classement des toiles</t>
+  </si>
+  <si>
+    <t>Visualier toutes les infos d'une toile (ADMIN)</t>
+  </si>
+  <si>
+    <t>Supprimer une toile (ADMIN)</t>
+  </si>
+  <si>
+    <t>Ajouter une image de défi (ADMIN)</t>
+  </si>
+  <si>
+    <t>Supprimer une image de défi (ADMIN)</t>
+  </si>
+  <si>
+    <t>En Cours</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>Dessiner sur la toile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -235,29 +242,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,141 +289,110 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2A6099"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -483,38 +451,346 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U14" activeCellId="0" sqref="U14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.65"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -550,7 +826,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="5">
         <v>45759</v>
       </c>
       <c r="G2" s="3"/>
@@ -558,7 +834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -570,7 +846,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="5">
         <v>45759</v>
       </c>
       <c r="G3" s="3"/>
@@ -578,7 +854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -590,7 +866,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="5">
         <v>45759</v>
       </c>
       <c r="G4" s="3"/>
@@ -598,17 +874,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="n">
+      <c r="E5" s="17"/>
+      <c r="F5" s="5">
         <v>45759</v>
       </c>
       <c r="G5" s="3"/>
@@ -620,7 +898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -630,7 +908,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>45759</v>
       </c>
       <c r="G6" s="3"/>
@@ -642,7 +920,7 @@
       </c>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -652,7 +930,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="5">
         <v>45759</v>
       </c>
       <c r="G7" s="3"/>
@@ -664,7 +942,7 @@
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -674,7 +952,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>45759</v>
       </c>
       <c r="G8" s="3"/>
@@ -684,9 +962,9 @@
       <c r="J8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -696,7 +974,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="5">
         <v>45759</v>
       </c>
       <c r="G9" s="3"/>
@@ -704,7 +982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -714,7 +992,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="5">
         <v>45759</v>
       </c>
       <c r="G10" s="3"/>
@@ -722,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -732,7 +1010,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="5">
         <v>45759</v>
       </c>
       <c r="G11" s="3"/>
@@ -740,7 +1018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -750,7 +1028,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="5">
         <v>45759</v>
       </c>
       <c r="G12" s="3"/>
@@ -758,7 +1036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -768,7 +1046,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="5">
         <v>45759</v>
       </c>
       <c r="G13" s="3"/>
@@ -776,7 +1054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -786,7 +1064,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="5">
         <v>45759</v>
       </c>
       <c r="G14" s="3"/>
@@ -794,14 +1072,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="5">
         <v>45759</v>
       </c>
       <c r="G15" s="3"/>
@@ -809,7 +1087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -820,8 +1098,8 @@
         <v>32</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5" t="n">
+      <c r="E16" s="19"/>
+      <c r="F16" s="5">
         <v>45759</v>
       </c>
       <c r="G16" s="3"/>
@@ -829,7 +1107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -841,7 +1119,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="5">
         <v>45759</v>
       </c>
       <c r="G17" s="3"/>
@@ -849,7 +1127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -861,7 +1139,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="5">
         <v>45759</v>
       </c>
       <c r="G18" s="3"/>
@@ -869,7 +1147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -880,8 +1158,8 @@
         <v>38</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5" t="n">
+      <c r="E19" s="19"/>
+      <c r="F19" s="5">
         <v>45759</v>
       </c>
       <c r="G19" s="3"/>
@@ -889,7 +1167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -901,7 +1179,7 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="5">
         <v>45759</v>
       </c>
       <c r="G20" s="3"/>
@@ -909,7 +1187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -921,7 +1199,7 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="5">
         <v>45759</v>
       </c>
       <c r="G21" s="3"/>
@@ -929,7 +1207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -941,7 +1219,7 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="5">
         <v>45759</v>
       </c>
       <c r="G22" s="3"/>
@@ -949,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -959,7 +1237,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="5">
         <v>45759</v>
       </c>
       <c r="G23" s="3"/>
@@ -967,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -977,7 +1255,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="5">
         <v>45759</v>
       </c>
       <c r="G24" s="3"/>
@@ -985,34 +1263,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="13"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>2</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1022,29 +1300,29 @@
         <v>48</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>4</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="14"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1054,13 +1332,13 @@
         <v>48</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1070,13 +1348,13 @@
         <v>48</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1086,13 +1364,13 @@
         <v>48</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1102,13 +1380,13 @@
         <v>48</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1118,13 +1396,13 @@
         <v>48</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1134,13 +1412,13 @@
         <v>48</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1150,45 +1428,45 @@
         <v>48</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>13</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1198,13 +1476,13 @@
         <v>48</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1214,13 +1492,13 @@
         <v>48</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1230,108 +1508,95 @@
         <v>48</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>17</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>18</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="14"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>19</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="14"/>
+      <c r="E43" s="13"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>20</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="14"/>
+      <c r="E44" s="13"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
+    <col min="1" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/DOC/Taches.xlsx
+++ b/DOC/Taches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrinlu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36A0C1F-B2A4-4CDB-9186-87EDFFFF8471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956BD757-E72C-44A9-BBCF-00602919CACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Créer une toile           &gt;&gt;&gt;    Backend</t>
   </si>
   <si>
-    <t>Créer un JSON avec deux variables INT</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -224,6 +221,12 @@
   </si>
   <si>
     <t>Dessiner sur la toile</t>
+  </si>
+  <si>
+    <t>Créer un JSON (variable) avec deux variables INT</t>
+  </si>
+  <si>
+    <t>Sauvegarder cette variable en .JSON</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +302,12 @@
         <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -338,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,6 +394,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -771,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +799,7 @@
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="1025" width="10.7109375" customWidth="1"/>
@@ -822,27 +837,27 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="5">
         <v>45759</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -851,18 +866,18 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
@@ -871,61 +886,63 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="5">
         <v>45759</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="5">
         <v>45759</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -935,19 +952,19 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -957,19 +974,19 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -979,15 +996,15 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -997,15 +1014,15 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1015,15 +1032,15 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1033,15 +1050,15 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1051,15 +1068,15 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1069,113 +1086,117 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="5">
         <v>45759</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="5">
+        <v>45760</v>
+      </c>
       <c r="H15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="5">
         <v>45759</v>
       </c>
-      <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5">
         <v>45759</v>
       </c>
-      <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="5">
         <v>45759</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="5">
+        <v>45760</v>
+      </c>
       <c r="H18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="19"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="5">
         <v>45759</v>
       </c>
-      <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
@@ -1184,18 +1205,18 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -1204,18 +1225,15 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -1224,15 +1242,15 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1242,15 +1260,15 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1260,7 +1278,7 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1278,15 +1296,19 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="5">
+        <v>45759</v>
+      </c>
+      <c r="G26" s="5">
+        <v>45760</v>
+      </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1294,10 +1316,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13"/>
@@ -1310,10 +1332,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="13"/>
@@ -1326,10 +1348,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="13"/>
@@ -1342,10 +1364,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="13"/>
@@ -1358,10 +1380,10 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="13"/>
@@ -1374,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="13"/>
@@ -1390,10 +1412,10 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="13"/>
@@ -1406,10 +1428,10 @@
         <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="13"/>
@@ -1422,10 +1444,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="13"/>
@@ -1438,10 +1460,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="13"/>
@@ -1454,10 +1476,10 @@
         <v>13</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="13"/>
@@ -1470,10 +1492,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="13"/>
@@ -1486,10 +1508,10 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="13"/>
@@ -1502,10 +1524,10 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="13"/>
@@ -1582,17 +1604,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
